--- a/Excel2Json/Test/hero_level.xlsx
+++ b/Excel2Json/Test/hero_level.xlsx
@@ -128,9 +128,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>hero_id</t>
   </si>
   <si>
@@ -377,6 +374,22 @@
   </si>
   <si>
     <t>灭霸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,6 +678,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,10 +997,10 @@
   <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,7 +1031,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1036,7 +1052,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>3</v>
@@ -1045,13 +1061,13 @@
         <v>34</v>
       </c>
       <c r="K1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>77</v>
-      </c>
       <c r="M1" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>5</v>
@@ -1155,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -1268,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
@@ -1368,116 +1384,116 @@
       </c>
     </row>
     <row r="4" spans="1:39" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="T4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -1489,7 +1505,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="17">
         <v>1760</v>
@@ -1606,7 +1622,7 @@
         <v>104</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="17">
         <v>2000</v>
@@ -1723,7 +1739,7 @@
         <v>105</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="24">
         <v>1980</v>
@@ -1841,7 +1857,7 @@
         <v>109</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="23">
         <v>2750</v>
@@ -1958,7 +1974,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
@@ -2075,7 +2091,7 @@
         <v>109</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
@@ -2192,7 +2208,7 @@
         <v>109</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
@@ -2309,7 +2325,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5">
         <v>1000</v>
@@ -2426,7 +2442,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="5">
         <v>1000</v>
@@ -2543,7 +2559,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="5">
         <v>1000</v>
@@ -2660,7 +2676,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="5">
         <v>1000</v>
@@ -2777,7 +2793,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="5">
         <v>1000</v>
@@ -2894,7 +2910,7 @@
         <v>109</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="5">
         <v>1500</v>
@@ -3011,7 +3027,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5">
         <v>1500</v>
@@ -3128,7 +3144,7 @@
         <v>109</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="5">
         <v>1500</v>
@@ -3245,7 +3261,7 @@
         <v>109</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5">
         <v>1500</v>
@@ -3362,7 +3378,7 @@
         <v>109</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="5">
         <v>1500</v>
@@ -3479,7 +3495,7 @@
         <v>109</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5">
         <v>1500</v>
@@ -3596,7 +3612,7 @@
         <v>109</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5">
         <v>1500</v>
@@ -3713,7 +3729,7 @@
         <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5">
         <v>1500</v>
@@ -3830,7 +3846,7 @@
         <v>109</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5">
         <v>1500</v>
@@ -3947,7 +3963,7 @@
         <v>109</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="5">
         <v>1500</v>
@@ -4064,7 +4080,7 @@
         <v>109</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="5">
         <v>1500</v>
@@ -4181,7 +4197,7 @@
         <v>103</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="5">
         <v>1000</v>
@@ -4298,7 +4314,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="24">
         <v>1800</v>
@@ -4416,7 +4432,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="5">
         <v>1000000</v>
@@ -4534,7 +4550,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31">
         <v>1000</v>
@@ -4652,7 +4668,7 @@
         <v>123</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>1000</v>
@@ -4770,7 +4786,7 @@
         <v>127</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="25">
         <v>3000</v>
@@ -4887,7 +4903,7 @@
         <v>301</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -5004,7 +5020,7 @@
         <v>302</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>100</v>
@@ -5121,7 +5137,7 @@
         <v>303</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>100</v>
